--- a/halp/notebook/data/lenet_test_acc_all_temporal.xlsx
+++ b/halp/notebook/data/lenet_test_acc_all_temporal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24120" windowHeight="16560"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="24120" windowHeight="16540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,11 +650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="232219872"/>
-        <c:axId val="233213632"/>
+        <c:axId val="515115440"/>
+        <c:axId val="515186640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="232219872"/>
+        <c:axId val="515115440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233213632"/>
+        <c:crossAx val="515186640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -760,7 +760,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233213632"/>
+        <c:axId val="515186640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.62"/>
@@ -842,6 +842,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -872,7 +873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232219872"/>
+        <c:crossAx val="515115440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1506,10 +1507,10 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
